--- a/liuyang/guanda/代码表/代码表清单104个.xlsx
+++ b/liuyang/guanda/代码表/代码表清单104个.xlsx
@@ -1,42 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ly/ynworkspace/Python-100-Days/liuyang/guanda/代码表/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52306027-E76C-A447-9F43-8CECA2247B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="760" windowWidth="26040" windowHeight="16200" xr2:uid="{4751CFED-FCFC-954C-992C-6F318CFC883F}"/>
+    <workbookView windowWidth="25900" windowHeight="12520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="417">
   <si>
     <t>序号</t>
   </si>
@@ -47,6 +25,9 @@
     <t>代码表英文名称</t>
   </si>
   <si>
+    <t>java类名称</t>
+  </si>
+  <si>
     <t>1 </t>
   </si>
   <si>
@@ -56,6 +37,9 @@
     <t>LQ_DM_GY_DZBZDSZL</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyDzbzdszl</t>
+  </si>
+  <si>
     <t>2 </t>
   </si>
   <si>
@@ -65,6 +49,9 @@
     <t>LQ_DM_GY_NSRZT</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyNsrzt</t>
+  </si>
+  <si>
     <t>3 </t>
   </si>
   <si>
@@ -74,6 +61,9 @@
     <t>LQ_DM_DJ_DJZCLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmDjDjzclx</t>
+  </si>
+  <si>
     <t>4 </t>
   </si>
   <si>
@@ -83,6 +73,9 @@
     <t>LQ_DM_DJ_KZZTDJLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmDjKzztdjlx</t>
+  </si>
+  <si>
     <t>5 </t>
   </si>
   <si>
@@ -92,6 +85,9 @@
     <t>LQ_DM_GY_HY</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyHy</t>
+  </si>
+  <si>
     <t>6 </t>
   </si>
   <si>
@@ -101,6 +97,9 @@
     <t>LQ_DM_GY_SWJG</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGySwjg</t>
+  </si>
+  <si>
     <t>7 </t>
   </si>
   <si>
@@ -110,6 +109,9 @@
     <t>LQ_DM_GY_GJHDQ</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyGjhdq</t>
+  </si>
+  <si>
     <t>8 </t>
   </si>
   <si>
@@ -119,13 +121,19 @@
     <t>LQ_DM_GY_XZQH</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyXzqh</t>
+  </si>
+  <si>
     <t>9 </t>
   </si>
   <si>
     <t>街道乡镇行政区划对照表</t>
   </si>
   <si>
-    <t>LQ_CS_DJ_JDXZXZQHDZB（新电局）</t>
+    <t>LQ_CS_DJ_JDXZXZQHDZB</t>
+  </si>
+  <si>
+    <t>com.wenjing.lqsb.domain.CsDjJdxzxzqhdzb</t>
   </si>
   <si>
     <t>10 </t>
@@ -137,13 +145,19 @@
     <t>LQ_DM_GY_JDXZ</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyJdxz</t>
+  </si>
+  <si>
     <t>11 </t>
   </si>
   <si>
     <t>街道乡镇税务机关对照表</t>
   </si>
   <si>
-    <t>LQ_CS_GY_JDXZSWJGDZB（新电局）</t>
+    <t>LQ_CS_GY_JDXZSWJGDZB</t>
+  </si>
+  <si>
+    <t>com.wenjing.lqsb.domain.CsGyJdxzswjgdzb</t>
   </si>
   <si>
     <t>12 </t>
@@ -155,6 +169,9 @@
     <t>LQ_DM_GY_KJZDZZ</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyKjzdzz</t>
+  </si>
+  <si>
     <t>13 </t>
   </si>
   <si>
@@ -164,6 +181,9 @@
     <t>LQ_DM_GY_DWLSGX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyDwlsgx</t>
+  </si>
+  <si>
     <t>14 </t>
   </si>
   <si>
@@ -173,6 +193,9 @@
     <t>LQ_DM_GY_SFZJLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGySfzjlx</t>
+  </si>
+  <si>
     <t>15 </t>
   </si>
   <si>
@@ -182,6 +205,9 @@
     <t>LQ_DM_GY_ZSXM</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyZsxm</t>
+  </si>
+  <si>
     <t>16 </t>
   </si>
   <si>
@@ -191,6 +217,9 @@
     <t>LQ_DM_GY_ZSPM</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyZspm</t>
+  </si>
+  <si>
     <t>17 </t>
   </si>
   <si>
@@ -200,6 +229,9 @@
     <t>LQ_CS_GY_GLB_ZSPM</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsGyGlbZspm</t>
+  </si>
+  <si>
     <t>18 </t>
   </si>
   <si>
@@ -209,6 +241,9 @@
     <t>LQ_DM_GY_ZSZM</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyZszm</t>
+  </si>
+  <si>
     <t>19 </t>
   </si>
   <si>
@@ -218,6 +253,9 @@
     <t>LQ_DM_SB_SBSX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSbSbsx</t>
+  </si>
+  <si>
     <t>20 </t>
   </si>
   <si>
@@ -227,6 +265,9 @@
     <t>LQ_DM_GY_SBFS</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGySbfs</t>
+  </si>
+  <si>
     <t>21 </t>
   </si>
   <si>
@@ -236,6 +277,9 @@
     <t>LQ_DM_GY_ZSFS</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyZsfs</t>
+  </si>
+  <si>
     <t>22 </t>
   </si>
   <si>
@@ -245,6 +289,9 @@
     <t>LQ_DM_GY_ZSDLFS</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyZsdlfs</t>
+  </si>
+  <si>
     <t>23 </t>
   </si>
   <si>
@@ -254,6 +301,9 @@
     <t>LQ_DM_ZS_SKSX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmZsSksx</t>
+  </si>
+  <si>
     <t>24 </t>
   </si>
   <si>
@@ -263,6 +313,9 @@
     <t>LQ_DM_ZS_SKZL</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmZsSkzl</t>
+  </si>
+  <si>
     <t>25 </t>
   </si>
   <si>
@@ -272,6 +325,9 @@
     <t>LQ_DM_GY_SBQX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGySbqx</t>
+  </si>
+  <si>
     <t>26 </t>
   </si>
   <si>
@@ -281,6 +337,9 @@
     <t>LQ_DM_GY_NSQX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyNsqx</t>
+  </si>
+  <si>
     <t>27 </t>
   </si>
   <si>
@@ -290,6 +349,9 @@
     <t>LQ_DM_GY_JKQX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyJkqx</t>
+  </si>
+  <si>
     <t>28 </t>
   </si>
   <si>
@@ -299,6 +361,9 @@
     <t>LQ_DM_ZS_TTSFLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmZsTtsflx</t>
+  </si>
+  <si>
     <t>29 </t>
   </si>
   <si>
@@ -308,6 +373,9 @@
     <t>LQ_DM_PZ_PZZL</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmPzPzzl</t>
+  </si>
+  <si>
     <t>30 </t>
   </si>
   <si>
@@ -317,6 +385,9 @@
     <t>LQ_DM_FP_FPZT</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmFpFpzt</t>
+  </si>
+  <si>
     <t>31 </t>
   </si>
   <si>
@@ -324,6 +395,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>LQ_</t>
     </r>
     <r>
@@ -331,13 +408,15 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>DM_SS_GXDKLX</t>
     </r>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSsGxdklx</t>
+  </si>
+  <si>
     <t>32 </t>
   </si>
   <si>
@@ -347,6 +426,9 @@
     <t>LQ_DM_DZFP_TDYSLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmDzfpTdyslx</t>
+  </si>
+  <si>
     <t>33 </t>
   </si>
   <si>
@@ -356,6 +438,9 @@
     <t>LQ_DM_GY_SWSX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGySwsx</t>
+  </si>
+  <si>
     <t>34 </t>
   </si>
   <si>
@@ -365,6 +450,9 @@
     <t>LQ_CS_YH_SWSXJMXZDZB</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsYhSwsxjmxzdzb</t>
+  </si>
+  <si>
     <t>35 </t>
   </si>
   <si>
@@ -374,6 +462,9 @@
     <t>LQ_DM_YH_SSYHLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmYhSsyhlx</t>
+  </si>
+  <si>
     <t>36 </t>
   </si>
   <si>
@@ -383,6 +474,9 @@
     <t>LQ_DM_YH_JMLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmYhJmlx</t>
+  </si>
+  <si>
     <t>37 </t>
   </si>
   <si>
@@ -392,6 +486,9 @@
     <t>LQ_DM_YH_JMFS</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmYhJmfs</t>
+  </si>
+  <si>
     <t>38 </t>
   </si>
   <si>
@@ -401,6 +498,9 @@
     <t>LQ_DM_GY_SSJMXZ</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGySsjmxz</t>
+  </si>
+  <si>
     <t>39 </t>
   </si>
   <si>
@@ -410,6 +510,9 @@
     <t>LQ_DM_GY_SSJMXZDL</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGySsjmxzdl</t>
+  </si>
+  <si>
     <t>40 </t>
   </si>
   <si>
@@ -419,6 +522,9 @@
     <t>LQ_DM_GY_SSJMXZXL</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGySsjmxzxl</t>
+  </si>
+  <si>
     <t>41 </t>
   </si>
   <si>
@@ -428,6 +534,9 @@
     <t>LQ_CS_GY_SSJMXZYJMZLXDZB</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsGySsjmxzyjmzlxdzb</t>
+  </si>
+  <si>
     <t>42 </t>
   </si>
   <si>
@@ -437,6 +546,9 @@
     <t>LQ_DM_YH_JMZLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmYhJmzlx</t>
+  </si>
+  <si>
     <t>43 </t>
   </si>
   <si>
@@ -446,6 +558,9 @@
     <t>LQ_CS_GY_SSJMXZJMFDEDSLGX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsGySsjmxzjmfdedslgx</t>
+  </si>
+  <si>
     <t>44 </t>
   </si>
   <si>
@@ -455,6 +570,9 @@
     <t>LQ_DM_SS_JMSXM</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSsJmsxm</t>
+  </si>
+  <si>
     <t>45 </t>
   </si>
   <si>
@@ -464,6 +582,9 @@
     <t>LQ_DM_YH_JMXMDL</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmYhJmxmdl</t>
+  </si>
+  <si>
     <t>46 </t>
   </si>
   <si>
@@ -473,6 +594,9 @@
     <t>LQ_DM_YH_JMXMXL</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmYhJmxmxl</t>
+  </si>
+  <si>
     <t>47 </t>
   </si>
   <si>
@@ -482,6 +606,9 @@
     <t>LQ_CS_YH_XEJMJMXZPZB</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsYhXejmjmxzpzb</t>
+  </si>
+  <si>
     <t>48 </t>
   </si>
   <si>
@@ -491,6 +618,9 @@
     <t>LQ_CS_SB_PHJMPZB</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsSbPhjmpzb</t>
+  </si>
+  <si>
     <t>49 </t>
   </si>
   <si>
@@ -500,6 +630,9 @@
     <t>LQ_CS_SB_JZZCSYZT</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsSbJzzcsyzt</t>
+  </si>
+  <si>
     <t>50 </t>
   </si>
   <si>
@@ -507,6 +640,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>LQ_</t>
     </r>
     <r>
@@ -514,13 +653,15 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>DM_SS_MTSZC</t>
     </r>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSsMtszc</t>
+  </si>
+  <si>
     <t>51 </t>
   </si>
   <si>
@@ -530,6 +671,9 @@
     <t>LQ_DM_SS_JSFF</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSsJsff</t>
+  </si>
+  <si>
     <t>52 </t>
   </si>
   <si>
@@ -539,6 +683,9 @@
     <t>LQ_DM_SS_AZZSJJDJKMLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSsAzzsjjdjkmlx</t>
+  </si>
+  <si>
     <t>53 </t>
   </si>
   <si>
@@ -548,6 +695,9 @@
     <t>LQ_DM_SS_JXSEZCLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSsJxsezclx</t>
+  </si>
+  <si>
     <t>54 </t>
   </si>
   <si>
@@ -557,6 +707,9 @@
     <t>LQ_DM_SS_LDSEZT</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSsLdsezt</t>
+  </si>
+  <si>
     <t>55 </t>
   </si>
   <si>
@@ -566,6 +719,9 @@
     <t>LQ_DM_SS_NSJCTZLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSsNsjctzlx</t>
+  </si>
+  <si>
     <t>56 </t>
   </si>
   <si>
@@ -575,6 +731,9 @@
     <t>LQ_DM_SS_SSGCWD</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSsSsgcwd</t>
+  </si>
+  <si>
     <t>57 </t>
   </si>
   <si>
@@ -584,6 +743,9 @@
     <t>LQ_DM_SS_SSPZFL</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSsSspzfl</t>
+  </si>
+  <si>
     <t>58 </t>
   </si>
   <si>
@@ -593,6 +755,9 @@
     <t>LQ_DM_SS_SSSJQD</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSsSssjqd</t>
+  </si>
+  <si>
     <t>59 </t>
   </si>
   <si>
@@ -602,6 +767,9 @@
     <t>LQ_DM_SS_SSYSPZLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSsSsyspzlx</t>
+  </si>
+  <si>
     <t>60 </t>
   </si>
   <si>
@@ -611,6 +779,9 @@
     <t>LQ_DM_SS_SSYWLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSsSsywlx</t>
+  </si>
+  <si>
     <t>61 </t>
   </si>
   <si>
@@ -620,6 +791,9 @@
     <t>LQ_DM_SS_SSYWXW</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSsSsywxw</t>
+  </si>
+  <si>
     <t>62 </t>
   </si>
   <si>
@@ -629,6 +803,9 @@
     <t>LQ_CS_SS_SSYWLXYSSYSPZLXDZ</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsSsSsywlxyssyspzlxdz</t>
+  </si>
+  <si>
     <t>63 </t>
   </si>
   <si>
@@ -638,6 +815,9 @@
     <t>LQ_DM_SS_SSMSBZ</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSsSsmsbz</t>
+  </si>
+  <si>
     <t>64 </t>
   </si>
   <si>
@@ -647,6 +827,9 @@
     <t>LQ_DM_SS_ZZSYJLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSsZzsyjlx</t>
+  </si>
+  <si>
     <t>65 </t>
   </si>
   <si>
@@ -656,6 +839,9 @@
     <t>LQ_DM_SB_SDJMYHSXMC</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSbSdjmyhsxmc</t>
+  </si>
+  <si>
     <t>66 </t>
   </si>
   <si>
@@ -665,6 +851,9 @@
     <t>LQ_DM_GY_YHHB</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyYhhb</t>
+  </si>
+  <si>
     <t>67 </t>
   </si>
   <si>
@@ -674,6 +863,9 @@
     <t>LQ_DM_GY_YHYYWD</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyYhyywd</t>
+  </si>
+  <si>
     <t>68 </t>
   </si>
   <si>
@@ -683,13 +875,19 @@
     <t>LQ_DM_SS_SPBMDL</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSsSpbmdl</t>
+  </si>
+  <si>
     <t>69 </t>
   </si>
   <si>
     <t>商品编码与税目对照表</t>
   </si>
   <si>
-    <t>LQ_CS_SB_XFSSPBMYSMDY（待定）</t>
+    <t>LQ_CS_SB_XFSSPBMYSMDY</t>
+  </si>
+  <si>
+    <t>com.wenjing.lqsb.domain.CsSbXfsspbmysmdy</t>
   </si>
   <si>
     <t>70 </t>
@@ -701,6 +899,9 @@
     <t>LQ_CS_SS_SPBMYJMXZDZB</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsSsSpbmyjmxzdzb</t>
+  </si>
+  <si>
     <t>71 </t>
   </si>
   <si>
@@ -710,6 +911,9 @@
     <t>LQ_DM_GY_JLDW</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyJldw</t>
+  </si>
+  <si>
     <t>72 </t>
   </si>
   <si>
@@ -719,6 +923,9 @@
     <t>LQ_CS_SS_JLDWHSB</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsSsJldwhsb</t>
+  </si>
+  <si>
     <t>73 </t>
   </si>
   <si>
@@ -728,6 +935,9 @@
     <t>LQ_CS_SS_XFSPMYHYDZB</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsSsXfspmyhydzb</t>
+  </si>
+  <si>
     <t>74 </t>
   </si>
   <si>
@@ -735,6 +945,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>LQ_</t>
     </r>
     <r>
@@ -742,13 +958,15 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>CS_SS_XFSPMYJLDWDZB</t>
     </r>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsSsXfspmyjldwdzb</t>
+  </si>
+  <si>
     <t>75 </t>
   </si>
   <si>
@@ -756,6 +974,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>LQ_</t>
     </r>
     <r>
@@ -763,13 +987,15 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>CS_SS_SPBMXFSPMHKCFSDZB</t>
     </r>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsSsSpbmxfspmhkcfsdzb</t>
+  </si>
+  <si>
     <t>76 </t>
   </si>
   <si>
@@ -777,6 +1003,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>LQ_</t>
     </r>
     <r>
@@ -784,13 +1016,15 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>DM_SS_KCFS</t>
     </r>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSsKcfs</t>
+  </si>
+  <si>
     <t>77 </t>
   </si>
   <si>
@@ -800,6 +1034,9 @@
     <t>LQ_DM_SB_JYLB</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSbJylb</t>
+  </si>
+  <si>
     <t>78 </t>
   </si>
   <si>
@@ -809,6 +1046,9 @@
     <t>LQ_DM_SB_JYLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSbJylx</t>
+  </si>
+  <si>
     <t>79 </t>
   </si>
   <si>
@@ -818,6 +1058,9 @@
     <t>LQ_DM_SB_FCYT</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSbFcyt</t>
+  </si>
+  <si>
     <t>80 </t>
   </si>
   <si>
@@ -827,6 +1070,9 @@
     <t>LQ_DM_SB_FCSNSRLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSbFcsnsrlx</t>
+  </si>
+  <si>
     <t>81 </t>
   </si>
   <si>
@@ -836,6 +1082,9 @@
     <t>LQ_CS_SB_FTC_MRQXGZ</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsSbFtcMrqxgz</t>
+  </si>
+  <si>
     <t>82 </t>
   </si>
   <si>
@@ -845,6 +1094,9 @@
     <t>LQ_CS_DJ_FCYZKCLSZB</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsDjFcyzkclszb</t>
+  </si>
+  <si>
     <t>83 </t>
   </si>
   <si>
@@ -854,6 +1106,9 @@
     <t>LQ_DM_SB_TDYT</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSbTdyt</t>
+  </si>
+  <si>
     <t>84 </t>
   </si>
   <si>
@@ -863,6 +1118,9 @@
     <t>LQ_DM_SB_TDQDFS</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSbTdqdfs</t>
+  </si>
+  <si>
     <t>85 </t>
   </si>
   <si>
@@ -872,6 +1130,9 @@
     <t>LQ_DM_SB_TDXZ</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSbTdxz</t>
+  </si>
+  <si>
     <t>86 </t>
   </si>
   <si>
@@ -881,6 +1142,9 @@
     <t>LQ_DM_DJ_TDDJ</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmDjTddj</t>
+  </si>
+  <si>
     <t>87 </t>
   </si>
   <si>
@@ -890,6 +1154,9 @@
     <t>LQ_CS_DJ_TDDJZSPMDZB</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsDjTddjzspmdzb</t>
+  </si>
+  <si>
     <t>88 </t>
   </si>
   <si>
@@ -899,6 +1166,9 @@
     <t>LQ_CS_DJ_TDDWSESZB</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsDjTddwseszb</t>
+  </si>
+  <si>
     <t>89 </t>
   </si>
   <si>
@@ -908,6 +1178,9 @@
     <t>LQ_DM_DJ_KDQSSZYQYLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmDjKdqsszyqylx</t>
+  </si>
+  <si>
     <t>90 </t>
   </si>
   <si>
@@ -917,6 +1190,9 @@
     <t>LQ_DM_GY_TSNSRLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyTsnsrlx</t>
+  </si>
+  <si>
     <t>91 </t>
   </si>
   <si>
@@ -926,6 +1202,9 @@
     <t>LQ_DM_DJ_SWZJZL</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmDjSwzjzl</t>
+  </si>
+  <si>
     <t>92 </t>
   </si>
   <si>
@@ -935,6 +1214,9 @@
     <t>LQ_DM_SB_GJGHBJNZDRJHJCDLSJLY</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSbGjghbjnzdrjhjcdlsjly</t>
+  </si>
+  <si>
     <t>93 </t>
   </si>
   <si>
@@ -944,6 +1226,9 @@
     <t>LQ_DM_SB_QYSDSMBKSQYLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSbQysdsmbksqylx</t>
+  </si>
+  <si>
     <t>94 </t>
   </si>
   <si>
@@ -953,6 +1238,9 @@
     <t>LQ_CS_GY_ZQTZ</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsGyZqtz</t>
+  </si>
+  <si>
     <t>95 </t>
   </si>
   <si>
@@ -962,6 +1250,9 @@
     <t>LQ_CS_GY_JJR</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsGyJjr</t>
+  </si>
+  <si>
     <t>96 </t>
   </si>
   <si>
@@ -971,6 +1262,9 @@
     <t>LQ_CS_GY_SBQXWH</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsGySbqxwh</t>
+  </si>
+  <si>
     <t>97 </t>
   </si>
   <si>
@@ -980,6 +1274,9 @@
     <t>LQ_CS_GY_ZSXMPMQXGZB_QG</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsGyZsxmpmqxgzbQg</t>
+  </si>
+  <si>
     <t>98 </t>
   </si>
   <si>
@@ -989,6 +1286,9 @@
     <t>LQ_CS_GY_ZSXMPMQXGZB_ZDY</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsGyZsxmpmqxgzbZdy</t>
+  </si>
+  <si>
     <t>99 </t>
   </si>
   <si>
@@ -998,6 +1298,9 @@
     <t>LQ_DM_GY_YWLC</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyYwlc</t>
+  </si>
+  <si>
     <t>100 </t>
   </si>
   <si>
@@ -1007,6 +1310,9 @@
     <t>LQ_CS_GY_XTCS</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsGyXtcs</t>
+  </si>
+  <si>
     <t>101 </t>
   </si>
   <si>
@@ -1016,34 +1322,51 @@
     <t>LQ_DM_GY_XTCSBM</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmGyXtcsbm</t>
+  </si>
+  <si>
     <t>免税电池类型代码表</t>
   </si>
   <si>
     <t>LQ_DM_SB_MSDCLX</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.DmSbMsdclx</t>
+  </si>
+  <si>
     <t>消费税税率配置表(应税消费品名称、税率和计量单位对照表)</t>
   </si>
   <si>
     <t>LQ_CS_SB_XFSSLPZB</t>
   </si>
   <si>
+    <t>com.wenjing.lqsb.domain.CsSbXfsslpzb</t>
+  </si>
+  <si>
     <t>代开发票减免税类型代码</t>
   </si>
   <si>
     <t>LQ_DM_FP_DKFPJMSLX</t>
+  </si>
+  <si>
+    <t>com.wenjing.lqsb.domain.DmFpDkfpjmslx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1052,32 +1375,173 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1096,8 +1560,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1107,142 +1757,384 @@
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1296,17 +2188,61 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1355,7 +2291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1388,26 +2324,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1440,23 +2359,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1598,29 +2500,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A359602-E0B0-C245-877B-63658ABDE497}">
-  <dimension ref="A1:C106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D105"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="66.1640625" customWidth="1"/>
+    <col min="1" max="1" width="33.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="36.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="66.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="61.525" customWidth="1"/>
+    <col min="5" max="5" width="32.3583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32" thickTop="1" thickBot="1">
+    <row r="1" ht="19.1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1630,1154 +2531,1469 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="46" thickBot="1">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="18.35" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="31" thickBot="1">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="18.35" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="31" thickBot="1">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="18.35" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="31" thickBot="1">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="18.35" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="31" thickBot="1">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="18.35" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="31" thickBot="1">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="18.35" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="31" thickBot="1">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="18.35" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="31" thickBot="1">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="18.35" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="46" thickBot="1">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" ht="18.35" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="31" thickBot="1">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="18.35" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="46" thickBot="1">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" ht="18.35" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="46" thickBot="1">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" ht="18.35" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="31" thickBot="1">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" ht="18.35" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="31" thickBot="1">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" ht="18.35" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="31" thickBot="1">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" ht="18.35" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="31" thickBot="1">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" ht="18.35" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="31" thickBot="1">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" ht="18.35" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="31" thickBot="1">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" ht="18.35" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="31" thickBot="1">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" ht="18.35" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="31" thickBot="1">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" ht="18.35" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="31" thickBot="1">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" ht="18.35" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="31" thickBot="1">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" ht="18.35" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="31" thickBot="1">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" ht="18.35" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="31" thickBot="1">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" ht="18.35" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="31" thickBot="1">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" ht="18.35" spans="1:4">
       <c r="A26" s="8" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="31" thickBot="1">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" ht="18.35" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="31" thickBot="1">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" ht="18.35" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="31" thickBot="1">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" ht="18.35" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="31" thickBot="1">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" ht="18.35" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="31" thickBot="1">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" ht="18.35" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="31" thickBot="1">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" ht="18.35" spans="1:4">
       <c r="A32" s="8" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="31" thickBot="1">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" ht="18.35" spans="1:4">
       <c r="A33" s="8" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="31" thickBot="1">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" ht="18.35" spans="1:4">
       <c r="A34" s="8" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="46" thickBot="1">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" ht="18.35" spans="1:4">
       <c r="A35" s="8" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="31" thickBot="1">
+        <v>138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" ht="18.35" spans="1:4">
       <c r="A36" s="8" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="31" thickBot="1">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" ht="18.35" spans="1:4">
       <c r="A37" s="8" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="31" thickBot="1">
+        <v>146</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" ht="18.35" spans="1:4">
       <c r="A38" s="8" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="31" thickBot="1">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" ht="18.35" spans="1:4">
       <c r="A39" s="8" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="46" thickBot="1">
+        <v>154</v>
+      </c>
+      <c r="D39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" ht="18.35" spans="1:4">
       <c r="A40" s="8" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="46" thickBot="1">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" ht="18.35" spans="1:4">
       <c r="A41" s="8" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="46" thickBot="1">
+        <v>162</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" ht="18.35" spans="1:4">
       <c r="A42" s="8" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="31" thickBot="1">
+        <v>166</v>
+      </c>
+      <c r="D42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" ht="18.35" spans="1:4">
       <c r="A43" s="8" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="61" thickBot="1">
+        <v>170</v>
+      </c>
+      <c r="D43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" ht="18.35" spans="1:4">
       <c r="A44" s="8" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="31" thickBot="1">
+        <v>174</v>
+      </c>
+      <c r="D44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" ht="18.35" spans="1:4">
       <c r="A45" s="8" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="31" thickBot="1">
+        <v>178</v>
+      </c>
+      <c r="D45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" ht="18.35" spans="1:4">
       <c r="A46" s="8" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="31" thickBot="1">
+        <v>182</v>
+      </c>
+      <c r="D46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" ht="18.35" spans="1:4">
       <c r="A47" s="8" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="46" thickBot="1">
+        <v>186</v>
+      </c>
+      <c r="D47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" ht="18.35" spans="1:4">
       <c r="A48" s="8" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="31" thickBot="1">
+        <v>190</v>
+      </c>
+      <c r="D48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" ht="18.35" spans="1:4">
       <c r="A49" s="8" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="46" thickBot="1">
+        <v>194</v>
+      </c>
+      <c r="D49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" ht="18.35" spans="1:4">
       <c r="A50" s="8" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="31" thickBot="1">
+        <v>198</v>
+      </c>
+      <c r="D50" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" ht="18.35" spans="1:4">
       <c r="A51" s="8" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="31" thickBot="1">
+        <v>202</v>
+      </c>
+      <c r="D51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" ht="18.35" spans="1:4">
       <c r="A52" s="8" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="46" thickBot="1">
+        <v>206</v>
+      </c>
+      <c r="D52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" ht="18.35" spans="1:4">
       <c r="A53" s="8" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="46" thickBot="1">
+        <v>210</v>
+      </c>
+      <c r="D53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" ht="18.35" spans="1:4">
       <c r="A54" s="8" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="31" thickBot="1">
+        <v>214</v>
+      </c>
+      <c r="D54" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" ht="18.35" spans="1:4">
       <c r="A55" s="8" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="46" thickBot="1">
+        <v>218</v>
+      </c>
+      <c r="D55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" ht="18.35" spans="1:4">
       <c r="A56" s="8" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="31" thickBot="1">
+        <v>222</v>
+      </c>
+      <c r="D56" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" ht="18.35" spans="1:4">
       <c r="A57" s="8" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="31" thickBot="1">
+        <v>226</v>
+      </c>
+      <c r="D57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" ht="18.35" spans="1:4">
       <c r="A58" s="8" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="31" thickBot="1">
+        <v>230</v>
+      </c>
+      <c r="D58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" ht="18.35" spans="1:4">
       <c r="A59" s="8" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="46" thickBot="1">
+        <v>234</v>
+      </c>
+      <c r="D59" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" ht="18.35" spans="1:4">
       <c r="A60" s="8" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="31" thickBot="1">
+        <v>238</v>
+      </c>
+      <c r="D60" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" ht="18.35" spans="1:4">
       <c r="A61" s="8" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="31" thickBot="1">
+        <v>242</v>
+      </c>
+      <c r="D61" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" ht="18.35" spans="1:4">
       <c r="A62" s="8" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="61" thickBot="1">
+        <v>246</v>
+      </c>
+      <c r="D62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" ht="18.35" spans="1:4">
       <c r="A63" s="8" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="31" thickBot="1">
+        <v>250</v>
+      </c>
+      <c r="D63" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" ht="18.35" spans="1:4">
       <c r="A64" s="8" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="31" thickBot="1">
+        <v>254</v>
+      </c>
+      <c r="D64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" ht="18.35" spans="1:4">
       <c r="A65" s="8" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="61" thickBot="1">
+        <v>258</v>
+      </c>
+      <c r="D65" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" ht="18.35" spans="1:4">
       <c r="A66" s="8" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="31" thickBot="1">
+        <v>262</v>
+      </c>
+      <c r="D66" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" ht="18.35" spans="1:4">
       <c r="A67" s="8" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="31" thickBot="1">
+        <v>266</v>
+      </c>
+      <c r="D67" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" ht="18.35" spans="1:4">
       <c r="A68" s="8" t="s">
-        <v>201</v>
+        <v>268</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>202</v>
+        <v>269</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="31" thickBot="1">
+        <v>270</v>
+      </c>
+      <c r="D68" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" ht="18.35" spans="1:4">
       <c r="A69" s="8" t="s">
-        <v>204</v>
+        <v>272</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="46" thickBot="1">
+        <v>274</v>
+      </c>
+      <c r="D69" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" ht="18.35" spans="1:4">
       <c r="A70" s="8" t="s">
-        <v>207</v>
+        <v>276</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="46" thickBot="1">
+        <v>278</v>
+      </c>
+      <c r="D70" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" ht="18.35" spans="1:4">
       <c r="A71" s="8" t="s">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="31" thickBot="1">
+        <v>282</v>
+      </c>
+      <c r="D71" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72" ht="18.35" spans="1:4">
       <c r="A72" s="8" t="s">
-        <v>213</v>
+        <v>284</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="31" thickBot="1">
+        <v>286</v>
+      </c>
+      <c r="D72" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" ht="18.35" spans="1:4">
       <c r="A73" s="8" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="46" thickBot="1">
+        <v>290</v>
+      </c>
+      <c r="D73" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" ht="18.35" spans="1:4">
       <c r="A74" s="8" t="s">
-        <v>219</v>
+        <v>292</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="46" thickBot="1">
+        <v>294</v>
+      </c>
+      <c r="D74" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" ht="18.35" spans="1:4">
       <c r="A75" s="8" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>223</v>
+        <v>297</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="61" thickBot="1">
+        <v>298</v>
+      </c>
+      <c r="D75" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="76" ht="18.35" spans="1:4">
       <c r="A76" s="8" t="s">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>226</v>
+        <v>301</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="31" thickBot="1">
+        <v>302</v>
+      </c>
+      <c r="D76" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="77" ht="18.35" spans="1:4">
       <c r="A77" s="8" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="31" thickBot="1">
+        <v>306</v>
+      </c>
+      <c r="D77" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" ht="18.35" spans="1:4">
       <c r="A78" s="8" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="31" thickBot="1">
+        <v>310</v>
+      </c>
+      <c r="D78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" ht="18.35" spans="1:4">
       <c r="A79" s="8" t="s">
-        <v>234</v>
+        <v>312</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="31" thickBot="1">
+        <v>314</v>
+      </c>
+      <c r="D79" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="80" ht="18.35" spans="1:4">
       <c r="A80" s="8" t="s">
-        <v>237</v>
+        <v>316</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="31" thickBot="1">
+        <v>318</v>
+      </c>
+      <c r="D80" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="81" ht="18.35" spans="1:4">
       <c r="A81" s="8" t="s">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="46" thickBot="1">
+        <v>322</v>
+      </c>
+      <c r="D81" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="82" ht="18.35" spans="1:4">
       <c r="A82" s="8" t="s">
-        <v>243</v>
+        <v>324</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="31" thickBot="1">
+        <v>326</v>
+      </c>
+      <c r="D82" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="83" ht="18.35" spans="1:4">
       <c r="A83" s="8" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="31" thickBot="1">
+        <v>330</v>
+      </c>
+      <c r="D83" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" ht="18.35" spans="1:4">
       <c r="A84" s="8" t="s">
-        <v>249</v>
+        <v>332</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="31" thickBot="1">
+        <v>334</v>
+      </c>
+      <c r="D84" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="85" ht="18.35" spans="1:4">
       <c r="A85" s="8" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="31" thickBot="1">
+        <v>338</v>
+      </c>
+      <c r="D85" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" ht="18.35" spans="1:4">
       <c r="A86" s="8" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="31" thickBot="1">
+        <v>342</v>
+      </c>
+      <c r="D86" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="87" ht="18.35" spans="1:4">
       <c r="A87" s="8" t="s">
-        <v>258</v>
+        <v>344</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="46" thickBot="1">
+        <v>346</v>
+      </c>
+      <c r="D87" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="88" ht="18.35" spans="1:4">
       <c r="A88" s="8" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>262</v>
+        <v>349</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="31" thickBot="1">
+        <v>350</v>
+      </c>
+      <c r="D88" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="89" ht="18.35" spans="1:4">
       <c r="A89" s="8" t="s">
-        <v>264</v>
+        <v>352</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>265</v>
+        <v>353</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="46" thickBot="1">
+        <v>354</v>
+      </c>
+      <c r="D89" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="90" ht="18.35" spans="1:4">
       <c r="A90" s="8" t="s">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>268</v>
+        <v>357</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="31" thickBot="1">
+        <v>358</v>
+      </c>
+      <c r="D90" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="91" ht="18.35" spans="1:4">
       <c r="A91" s="8" t="s">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>271</v>
+        <v>361</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="31" thickBot="1">
+        <v>362</v>
+      </c>
+      <c r="D91" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="92" ht="18.35" spans="1:4">
       <c r="A92" s="8" t="s">
-        <v>273</v>
+        <v>364</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>274</v>
+        <v>365</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="76" thickBot="1">
+        <v>366</v>
+      </c>
+      <c r="D92" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="93" ht="32.75" spans="1:4">
       <c r="A93" s="8" t="s">
-        <v>276</v>
+        <v>368</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>277</v>
+        <v>369</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="46" thickBot="1">
+        <v>370</v>
+      </c>
+      <c r="D93" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="94" ht="18.35" spans="1:4">
       <c r="A94" s="8" t="s">
-        <v>279</v>
+        <v>372</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>280</v>
+        <v>373</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="31" thickBot="1">
+        <v>374</v>
+      </c>
+      <c r="D94" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="95" ht="18.35" spans="1:4">
       <c r="A95" s="8" t="s">
-        <v>282</v>
+        <v>376</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>283</v>
+        <v>377</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="31" thickBot="1">
+        <v>378</v>
+      </c>
+      <c r="D95" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="96" ht="18.35" spans="1:4">
       <c r="A96" s="8" t="s">
-        <v>285</v>
+        <v>380</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>286</v>
+        <v>381</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="31" thickBot="1">
+        <v>382</v>
+      </c>
+      <c r="D96" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" ht="18.35" spans="1:4">
       <c r="A97" s="8" t="s">
-        <v>288</v>
+        <v>384</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>289</v>
+        <v>385</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="46" thickBot="1">
+        <v>386</v>
+      </c>
+      <c r="D97" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="98" ht="18.35" spans="1:4">
       <c r="A98" s="8" t="s">
-        <v>291</v>
+        <v>388</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>292</v>
+        <v>389</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="46" thickBot="1">
+        <v>390</v>
+      </c>
+      <c r="D98" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="99" ht="18.35" spans="1:4">
       <c r="A99" s="8" t="s">
-        <v>294</v>
+        <v>392</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>295</v>
+        <v>393</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="31" thickBot="1">
+        <v>394</v>
+      </c>
+      <c r="D99" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="100" ht="18.35" spans="1:4">
       <c r="A100" s="8" t="s">
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>298</v>
+        <v>397</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="31" thickBot="1">
+        <v>398</v>
+      </c>
+      <c r="D100" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" ht="18.35" spans="1:4">
       <c r="A101" s="8" t="s">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="31" thickBot="1">
+        <v>402</v>
+      </c>
+      <c r="D101" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="102" ht="18.35" spans="1:4">
       <c r="A102" s="8" t="s">
-        <v>303</v>
+        <v>404</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>304</v>
+        <v>405</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="31" thickBot="1">
+        <v>406</v>
+      </c>
+      <c r="D102" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="103" ht="18.35" spans="1:4">
       <c r="A103" s="11">
         <v>102</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>306</v>
+        <v>408</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="91" thickBot="1">
+        <v>409</v>
+      </c>
+      <c r="D103" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="104" ht="32.75" spans="1:4">
       <c r="A104" s="11">
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>308</v>
+        <v>411</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="46" thickBot="1">
+        <v>412</v>
+      </c>
+      <c r="D104" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="105" ht="18.35" spans="1:4">
       <c r="A105" s="13">
         <v>104</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>310</v>
+        <v>414</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" thickTop="1"/>
+        <v>415</v>
+      </c>
+      <c r="D105" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="106" ht="18.35"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>